--- a/需求分析/接口文档/需求接口 v2.xlsx
+++ b/需求分析/接口文档/需求接口 v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26445" windowHeight="11925" tabRatio="555" activeTab="5"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="555" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="注册登录" sheetId="1" r:id="rId1"/>
@@ -1459,9 +1459,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1505,16 +1505,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1529,15 +1528,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1551,17 +1566,32 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1575,14 +1605,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
@@ -1591,31 +1613,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1684,13 +1684,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,13 +1702,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,31 +1726,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1762,6 +1744,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1774,7 +1774,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1786,31 +1804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,7 +1816,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,11 +1836,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1856,21 +1862,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1893,17 +1884,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1918,16 +1903,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1950,10 +1950,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1965,76 +1965,76 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2043,10 +2043,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2058,10 +2058,10 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2070,25 +2070,25 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14758,8 +14758,8 @@
   </sheetPr>
   <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16605,7 +16605,7 @@
   </sheetPr>
   <dimension ref="A1:S125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A53" sqref="A53:O69"/>
     </sheetView>
   </sheetViews>

--- a/需求分析/接口文档/需求接口 v2.xlsx
+++ b/需求分析/接口文档/需求接口 v2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="555" activeTab="4"/>
+    <workbookView windowWidth="21765" windowHeight="8745" tabRatio="555"/>
   </bookViews>
   <sheets>
     <sheet name="注册登录" sheetId="1" r:id="rId1"/>
@@ -1459,9 +1459,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1513,7 +1513,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1527,19 +1527,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1551,8 +1550,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1575,15 +1583,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1613,9 +1614,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1678,6 +1678,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1690,7 +1696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,7 +1714,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1714,13 +1744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,7 +1762,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,67 +1804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,7 +1822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,6 +1870,26 @@
       <right/>
       <top/>
       <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1880,24 +1900,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1934,26 +1936,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1962,19 +1962,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1983,70 +1983,70 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2055,44 +2055,47 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2144,7 +2147,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="39" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2163,7 +2169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -2213,6 +2219,7 @@
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="强调文字颜色6 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2562,7 +2569,7 @@
   <sheetPr/>
   <dimension ref="A1:V153"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H36" sqref="H36:J36"/>
     </sheetView>
   </sheetViews>
@@ -2572,23 +2579,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="12" t="s">
         <v>1</v>
       </c>
@@ -2596,21 +2603,21 @@
       <c r="R1" s="12"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -2752,8 +2759,8 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
@@ -2784,8 +2791,8 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
@@ -2816,8 +2823,8 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="12"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
@@ -2882,15 +2889,15 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
@@ -2978,40 +2985,40 @@
       <c r="O15" s="14"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
@@ -3212,15 +3219,15 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20" t="s">
+      <c r="L37" s="21"/>
+      <c r="M37" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="5"/>
@@ -3301,40 +3308,40 @@
       <c r="O42" s="14"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="2" t="s">
@@ -3531,15 +3538,15 @@
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
-      <c r="K68" s="20" t="s">
+      <c r="K68" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20" t="s">
+      <c r="L68" s="21"/>
+      <c r="M68" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="5"/>
@@ -6117,40 +6124,40 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
@@ -6449,40 +6456,40 @@
       <c r="O16" s="14"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
@@ -6823,40 +6830,40 @@
       <c r="O45" s="14"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
@@ -7112,40 +7119,40 @@
       <c r="O60" s="6"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2" t="s">
@@ -7481,40 +7488,40 @@
       <c r="J103" s="14"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
+      <c r="O114" s="18"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="2" t="s">
@@ -7814,40 +7821,40 @@
       <c r="O128" s="5"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17"/>
-      <c r="K143" s="17"/>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
+      <c r="N143" s="18"/>
+      <c r="O143" s="18"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="17"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="17"/>
-      <c r="I144" s="17"/>
-      <c r="J144" s="17"/>
-      <c r="K144" s="17"/>
-      <c r="L144" s="17"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
+      <c r="A144" s="18"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="18"/>
+      <c r="N144" s="18"/>
+      <c r="O144" s="18"/>
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="2" t="s">
@@ -8063,40 +8070,40 @@
       <c r="O155" s="14"/>
     </row>
     <row r="170" spans="1:15">
-      <c r="A170" s="17" t="s">
+      <c r="A170" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B170" s="17"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="17"/>
-      <c r="G170" s="17"/>
-      <c r="H170" s="17"/>
-      <c r="I170" s="17"/>
-      <c r="J170" s="17"/>
-      <c r="K170" s="17"/>
-      <c r="L170" s="17"/>
-      <c r="M170" s="17"/>
-      <c r="N170" s="17"/>
-      <c r="O170" s="17"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="18"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
+      <c r="H170" s="18"/>
+      <c r="I170" s="18"/>
+      <c r="J170" s="18"/>
+      <c r="K170" s="18"/>
+      <c r="L170" s="18"/>
+      <c r="M170" s="18"/>
+      <c r="N170" s="18"/>
+      <c r="O170" s="18"/>
     </row>
     <row r="171" spans="1:15">
-      <c r="A171" s="17"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
-      <c r="I171" s="17"/>
-      <c r="J171" s="17"/>
-      <c r="K171" s="17"/>
-      <c r="L171" s="17"/>
-      <c r="M171" s="17"/>
-      <c r="N171" s="17"/>
-      <c r="O171" s="17"/>
+      <c r="A171" s="18"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="18"/>
+      <c r="E171" s="18"/>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18"/>
+      <c r="I171" s="18"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="18"/>
+      <c r="L171" s="18"/>
+      <c r="M171" s="18"/>
+      <c r="N171" s="18"/>
+      <c r="O171" s="18"/>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="2" t="s">
@@ -8396,40 +8403,40 @@
       <c r="O184" s="5"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="17" t="s">
+      <c r="A201" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B201" s="17"/>
-      <c r="C201" s="17"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="17"/>
-      <c r="F201" s="17"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
-      <c r="J201" s="17"/>
-      <c r="K201" s="17"/>
-      <c r="L201" s="17"/>
-      <c r="M201" s="17"/>
-      <c r="N201" s="17"/>
-      <c r="O201" s="17"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
+      <c r="F201" s="18"/>
+      <c r="G201" s="18"/>
+      <c r="H201" s="18"/>
+      <c r="I201" s="18"/>
+      <c r="J201" s="18"/>
+      <c r="K201" s="18"/>
+      <c r="L201" s="18"/>
+      <c r="M201" s="18"/>
+      <c r="N201" s="18"/>
+      <c r="O201" s="18"/>
     </row>
     <row r="202" spans="1:15">
-      <c r="A202" s="17"/>
-      <c r="B202" s="17"/>
-      <c r="C202" s="17"/>
-      <c r="D202" s="17"/>
-      <c r="E202" s="17"/>
-      <c r="F202" s="17"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="17"/>
-      <c r="I202" s="17"/>
-      <c r="J202" s="17"/>
-      <c r="K202" s="17"/>
-      <c r="L202" s="17"/>
-      <c r="M202" s="17"/>
-      <c r="N202" s="17"/>
-      <c r="O202" s="17"/>
+      <c r="A202" s="18"/>
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="18"/>
+      <c r="E202" s="18"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="18"/>
+      <c r="H202" s="18"/>
+      <c r="I202" s="18"/>
+      <c r="J202" s="18"/>
+      <c r="K202" s="18"/>
+      <c r="L202" s="18"/>
+      <c r="M202" s="18"/>
+      <c r="N202" s="18"/>
+      <c r="O202" s="18"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="2" t="s">
@@ -8729,40 +8736,40 @@
       <c r="O215" s="5"/>
     </row>
     <row r="230" spans="1:15">
-      <c r="A230" s="17" t="s">
+      <c r="A230" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B230" s="17"/>
-      <c r="C230" s="17"/>
-      <c r="D230" s="17"/>
-      <c r="E230" s="17"/>
-      <c r="F230" s="17"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="17"/>
-      <c r="I230" s="17"/>
-      <c r="J230" s="17"/>
-      <c r="K230" s="17"/>
-      <c r="L230" s="17"/>
-      <c r="M230" s="17"/>
-      <c r="N230" s="17"/>
-      <c r="O230" s="17"/>
+      <c r="B230" s="18"/>
+      <c r="C230" s="18"/>
+      <c r="D230" s="18"/>
+      <c r="E230" s="18"/>
+      <c r="F230" s="18"/>
+      <c r="G230" s="18"/>
+      <c r="H230" s="18"/>
+      <c r="I230" s="18"/>
+      <c r="J230" s="18"/>
+      <c r="K230" s="18"/>
+      <c r="L230" s="18"/>
+      <c r="M230" s="18"/>
+      <c r="N230" s="18"/>
+      <c r="O230" s="18"/>
     </row>
     <row r="231" spans="1:15">
-      <c r="A231" s="17"/>
-      <c r="B231" s="17"/>
-      <c r="C231" s="17"/>
-      <c r="D231" s="17"/>
-      <c r="E231" s="17"/>
-      <c r="F231" s="17"/>
-      <c r="G231" s="17"/>
-      <c r="H231" s="17"/>
-      <c r="I231" s="17"/>
-      <c r="J231" s="17"/>
-      <c r="K231" s="17"/>
-      <c r="L231" s="17"/>
-      <c r="M231" s="17"/>
-      <c r="N231" s="17"/>
-      <c r="O231" s="17"/>
+      <c r="A231" s="18"/>
+      <c r="B231" s="18"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="18"/>
+      <c r="E231" s="18"/>
+      <c r="F231" s="18"/>
+      <c r="G231" s="18"/>
+      <c r="H231" s="18"/>
+      <c r="I231" s="18"/>
+      <c r="J231" s="18"/>
+      <c r="K231" s="18"/>
+      <c r="L231" s="18"/>
+      <c r="M231" s="18"/>
+      <c r="N231" s="18"/>
+      <c r="O231" s="18"/>
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="2" t="s">
@@ -8936,40 +8943,40 @@
       <c r="O238" s="5"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="17" t="s">
+      <c r="A257" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B257" s="17"/>
-      <c r="C257" s="17"/>
-      <c r="D257" s="17"/>
-      <c r="E257" s="17"/>
-      <c r="F257" s="17"/>
-      <c r="G257" s="17"/>
-      <c r="H257" s="17"/>
-      <c r="I257" s="17"/>
-      <c r="J257" s="17"/>
-      <c r="K257" s="17"/>
-      <c r="L257" s="17"/>
-      <c r="M257" s="17"/>
-      <c r="N257" s="17"/>
-      <c r="O257" s="17"/>
+      <c r="B257" s="18"/>
+      <c r="C257" s="18"/>
+      <c r="D257" s="18"/>
+      <c r="E257" s="18"/>
+      <c r="F257" s="18"/>
+      <c r="G257" s="18"/>
+      <c r="H257" s="18"/>
+      <c r="I257" s="18"/>
+      <c r="J257" s="18"/>
+      <c r="K257" s="18"/>
+      <c r="L257" s="18"/>
+      <c r="M257" s="18"/>
+      <c r="N257" s="18"/>
+      <c r="O257" s="18"/>
     </row>
     <row r="258" spans="1:15">
-      <c r="A258" s="17"/>
-      <c r="B258" s="17"/>
-      <c r="C258" s="17"/>
-      <c r="D258" s="17"/>
-      <c r="E258" s="17"/>
-      <c r="F258" s="17"/>
-      <c r="G258" s="17"/>
-      <c r="H258" s="17"/>
-      <c r="I258" s="17"/>
-      <c r="J258" s="17"/>
-      <c r="K258" s="17"/>
-      <c r="L258" s="17"/>
-      <c r="M258" s="17"/>
-      <c r="N258" s="17"/>
-      <c r="O258" s="17"/>
+      <c r="A258" s="18"/>
+      <c r="B258" s="18"/>
+      <c r="C258" s="18"/>
+      <c r="D258" s="18"/>
+      <c r="E258" s="18"/>
+      <c r="F258" s="18"/>
+      <c r="G258" s="18"/>
+      <c r="H258" s="18"/>
+      <c r="I258" s="18"/>
+      <c r="J258" s="18"/>
+      <c r="K258" s="18"/>
+      <c r="L258" s="18"/>
+      <c r="M258" s="18"/>
+      <c r="N258" s="18"/>
+      <c r="O258" s="18"/>
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="2" t="s">
@@ -9143,40 +9150,40 @@
       <c r="O265" s="5"/>
     </row>
     <row r="283" spans="1:15">
-      <c r="A283" s="17" t="s">
+      <c r="A283" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B283" s="17"/>
-      <c r="C283" s="17"/>
-      <c r="D283" s="17"/>
-      <c r="E283" s="17"/>
-      <c r="F283" s="17"/>
-      <c r="G283" s="17"/>
-      <c r="H283" s="17"/>
-      <c r="I283" s="17"/>
-      <c r="J283" s="17"/>
-      <c r="K283" s="17"/>
-      <c r="L283" s="17"/>
-      <c r="M283" s="17"/>
-      <c r="N283" s="17"/>
-      <c r="O283" s="17"/>
+      <c r="B283" s="18"/>
+      <c r="C283" s="18"/>
+      <c r="D283" s="18"/>
+      <c r="E283" s="18"/>
+      <c r="F283" s="18"/>
+      <c r="G283" s="18"/>
+      <c r="H283" s="18"/>
+      <c r="I283" s="18"/>
+      <c r="J283" s="18"/>
+      <c r="K283" s="18"/>
+      <c r="L283" s="18"/>
+      <c r="M283" s="18"/>
+      <c r="N283" s="18"/>
+      <c r="O283" s="18"/>
     </row>
     <row r="284" spans="1:15">
-      <c r="A284" s="17"/>
-      <c r="B284" s="17"/>
-      <c r="C284" s="17"/>
-      <c r="D284" s="17"/>
-      <c r="E284" s="17"/>
-      <c r="F284" s="17"/>
-      <c r="G284" s="17"/>
-      <c r="H284" s="17"/>
-      <c r="I284" s="17"/>
-      <c r="J284" s="17"/>
-      <c r="K284" s="17"/>
-      <c r="L284" s="17"/>
-      <c r="M284" s="17"/>
-      <c r="N284" s="17"/>
-      <c r="O284" s="17"/>
+      <c r="A284" s="18"/>
+      <c r="B284" s="18"/>
+      <c r="C284" s="18"/>
+      <c r="D284" s="18"/>
+      <c r="E284" s="18"/>
+      <c r="F284" s="18"/>
+      <c r="G284" s="18"/>
+      <c r="H284" s="18"/>
+      <c r="I284" s="18"/>
+      <c r="J284" s="18"/>
+      <c r="K284" s="18"/>
+      <c r="L284" s="18"/>
+      <c r="M284" s="18"/>
+      <c r="N284" s="18"/>
+      <c r="O284" s="18"/>
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="2" t="s">
@@ -9344,40 +9351,40 @@
       <c r="O291" s="5"/>
     </row>
     <row r="307" spans="1:15">
-      <c r="A307" s="17" t="s">
+      <c r="A307" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B307" s="17"/>
-      <c r="C307" s="17"/>
-      <c r="D307" s="17"/>
-      <c r="E307" s="17"/>
-      <c r="F307" s="17"/>
-      <c r="G307" s="17"/>
-      <c r="H307" s="17"/>
-      <c r="I307" s="17"/>
-      <c r="J307" s="17"/>
-      <c r="K307" s="17"/>
-      <c r="L307" s="17"/>
-      <c r="M307" s="17"/>
-      <c r="N307" s="17"/>
-      <c r="O307" s="17"/>
+      <c r="B307" s="18"/>
+      <c r="C307" s="18"/>
+      <c r="D307" s="18"/>
+      <c r="E307" s="18"/>
+      <c r="F307" s="18"/>
+      <c r="G307" s="18"/>
+      <c r="H307" s="18"/>
+      <c r="I307" s="18"/>
+      <c r="J307" s="18"/>
+      <c r="K307" s="18"/>
+      <c r="L307" s="18"/>
+      <c r="M307" s="18"/>
+      <c r="N307" s="18"/>
+      <c r="O307" s="18"/>
     </row>
     <row r="308" spans="1:15">
-      <c r="A308" s="17"/>
-      <c r="B308" s="17"/>
-      <c r="C308" s="17"/>
-      <c r="D308" s="17"/>
-      <c r="E308" s="17"/>
-      <c r="F308" s="17"/>
-      <c r="G308" s="17"/>
-      <c r="H308" s="17"/>
-      <c r="I308" s="17"/>
-      <c r="J308" s="17"/>
-      <c r="K308" s="17"/>
-      <c r="L308" s="17"/>
-      <c r="M308" s="17"/>
-      <c r="N308" s="17"/>
-      <c r="O308" s="17"/>
+      <c r="A308" s="18"/>
+      <c r="B308" s="18"/>
+      <c r="C308" s="18"/>
+      <c r="D308" s="18"/>
+      <c r="E308" s="18"/>
+      <c r="F308" s="18"/>
+      <c r="G308" s="18"/>
+      <c r="H308" s="18"/>
+      <c r="I308" s="18"/>
+      <c r="J308" s="18"/>
+      <c r="K308" s="18"/>
+      <c r="L308" s="18"/>
+      <c r="M308" s="18"/>
+      <c r="N308" s="18"/>
+      <c r="O308" s="18"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="2" t="s">
@@ -9677,40 +9684,40 @@
       <c r="O321" s="5"/>
     </row>
     <row r="340" spans="1:15">
-      <c r="A340" s="17" t="s">
+      <c r="A340" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="B340" s="17"/>
-      <c r="C340" s="17"/>
-      <c r="D340" s="17"/>
-      <c r="E340" s="17"/>
-      <c r="F340" s="17"/>
-      <c r="G340" s="17"/>
-      <c r="H340" s="17"/>
-      <c r="I340" s="17"/>
-      <c r="J340" s="17"/>
-      <c r="K340" s="17"/>
-      <c r="L340" s="17"/>
-      <c r="M340" s="17"/>
-      <c r="N340" s="17"/>
-      <c r="O340" s="17"/>
+      <c r="B340" s="18"/>
+      <c r="C340" s="18"/>
+      <c r="D340" s="18"/>
+      <c r="E340" s="18"/>
+      <c r="F340" s="18"/>
+      <c r="G340" s="18"/>
+      <c r="H340" s="18"/>
+      <c r="I340" s="18"/>
+      <c r="J340" s="18"/>
+      <c r="K340" s="18"/>
+      <c r="L340" s="18"/>
+      <c r="M340" s="18"/>
+      <c r="N340" s="18"/>
+      <c r="O340" s="18"/>
     </row>
     <row r="341" spans="1:15">
-      <c r="A341" s="17"/>
-      <c r="B341" s="17"/>
-      <c r="C341" s="17"/>
-      <c r="D341" s="17"/>
-      <c r="E341" s="17"/>
-      <c r="F341" s="17"/>
-      <c r="G341" s="17"/>
-      <c r="H341" s="17"/>
-      <c r="I341" s="17"/>
-      <c r="J341" s="17"/>
-      <c r="K341" s="17"/>
-      <c r="L341" s="17"/>
-      <c r="M341" s="17"/>
-      <c r="N341" s="17"/>
-      <c r="O341" s="17"/>
+      <c r="A341" s="18"/>
+      <c r="B341" s="18"/>
+      <c r="C341" s="18"/>
+      <c r="D341" s="18"/>
+      <c r="E341" s="18"/>
+      <c r="F341" s="18"/>
+      <c r="G341" s="18"/>
+      <c r="H341" s="18"/>
+      <c r="I341" s="18"/>
+      <c r="J341" s="18"/>
+      <c r="K341" s="18"/>
+      <c r="L341" s="18"/>
+      <c r="M341" s="18"/>
+      <c r="N341" s="18"/>
+      <c r="O341" s="18"/>
     </row>
     <row r="342" spans="1:15">
       <c r="A342" s="2" t="s">
@@ -10004,40 +10011,40 @@
       <c r="O354" s="5"/>
     </row>
     <row r="374" spans="1:15">
-      <c r="A374" s="17" t="s">
+      <c r="A374" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B374" s="17"/>
-      <c r="C374" s="17"/>
-      <c r="D374" s="17"/>
-      <c r="E374" s="17"/>
-      <c r="F374" s="17"/>
-      <c r="G374" s="17"/>
-      <c r="H374" s="17"/>
-      <c r="I374" s="17"/>
-      <c r="J374" s="17"/>
-      <c r="K374" s="17"/>
-      <c r="L374" s="17"/>
-      <c r="M374" s="17"/>
-      <c r="N374" s="17"/>
-      <c r="O374" s="17"/>
+      <c r="B374" s="18"/>
+      <c r="C374" s="18"/>
+      <c r="D374" s="18"/>
+      <c r="E374" s="18"/>
+      <c r="F374" s="18"/>
+      <c r="G374" s="18"/>
+      <c r="H374" s="18"/>
+      <c r="I374" s="18"/>
+      <c r="J374" s="18"/>
+      <c r="K374" s="18"/>
+      <c r="L374" s="18"/>
+      <c r="M374" s="18"/>
+      <c r="N374" s="18"/>
+      <c r="O374" s="18"/>
     </row>
     <row r="375" spans="1:15">
-      <c r="A375" s="17"/>
-      <c r="B375" s="17"/>
-      <c r="C375" s="17"/>
-      <c r="D375" s="17"/>
-      <c r="E375" s="17"/>
-      <c r="F375" s="17"/>
-      <c r="G375" s="17"/>
-      <c r="H375" s="17"/>
-      <c r="I375" s="17"/>
-      <c r="J375" s="17"/>
-      <c r="K375" s="17"/>
-      <c r="L375" s="17"/>
-      <c r="M375" s="17"/>
-      <c r="N375" s="17"/>
-      <c r="O375" s="17"/>
+      <c r="A375" s="18"/>
+      <c r="B375" s="18"/>
+      <c r="C375" s="18"/>
+      <c r="D375" s="18"/>
+      <c r="E375" s="18"/>
+      <c r="F375" s="18"/>
+      <c r="G375" s="18"/>
+      <c r="H375" s="18"/>
+      <c r="I375" s="18"/>
+      <c r="J375" s="18"/>
+      <c r="K375" s="18"/>
+      <c r="L375" s="18"/>
+      <c r="M375" s="18"/>
+      <c r="N375" s="18"/>
+      <c r="O375" s="18"/>
     </row>
     <row r="376" spans="1:15">
       <c r="A376" s="2" t="s">
@@ -10532,10 +10539,10 @@
       </c>
       <c r="N416" s="4"/>
       <c r="O416" s="4"/>
-      <c r="P416" s="19"/>
-      <c r="Q416" s="19"/>
-      <c r="R416" s="19"/>
-      <c r="S416" s="19"/>
+      <c r="P416" s="20"/>
+      <c r="Q416" s="20"/>
+      <c r="R416" s="20"/>
+      <c r="S416" s="20"/>
     </row>
     <row r="417" spans="1:19">
       <c r="A417" s="4"/>
@@ -10557,10 +10564,10 @@
       </c>
       <c r="N417" s="4"/>
       <c r="O417" s="4"/>
-      <c r="P417" s="19"/>
-      <c r="Q417" s="19"/>
-      <c r="R417" s="19"/>
-      <c r="S417" s="19"/>
+      <c r="P417" s="20"/>
+      <c r="Q417" s="20"/>
+      <c r="R417" s="20"/>
+      <c r="S417" s="20"/>
     </row>
     <row r="418" spans="1:19">
       <c r="A418" s="6"/>
@@ -10582,10 +10589,10 @@
       </c>
       <c r="N418" s="4"/>
       <c r="O418" s="4"/>
-      <c r="P418" s="19"/>
-      <c r="Q418" s="19"/>
-      <c r="R418" s="19"/>
-      <c r="S418" s="19"/>
+      <c r="P418" s="20"/>
+      <c r="Q418" s="20"/>
+      <c r="R418" s="20"/>
+      <c r="S418" s="20"/>
     </row>
     <row r="419" spans="1:19">
       <c r="A419" s="6"/>
@@ -10607,10 +10614,10 @@
       </c>
       <c r="N419" s="5"/>
       <c r="O419" s="5"/>
-      <c r="P419" s="19"/>
-      <c r="Q419" s="19"/>
-      <c r="R419" s="19"/>
-      <c r="S419" s="19"/>
+      <c r="P419" s="20"/>
+      <c r="Q419" s="20"/>
+      <c r="R419" s="20"/>
+      <c r="S419" s="20"/>
     </row>
     <row r="436" spans="1:15">
       <c r="A436" s="1" t="s">
@@ -11785,40 +11792,40 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
@@ -11967,40 +11974,40 @@
       <c r="O8" s="4"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
@@ -12277,40 +12284,40 @@
       <c r="J41" s="14"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
@@ -12436,40 +12443,40 @@
       <c r="O56" s="6"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="17" t="s">
+      <c r="A73" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
@@ -12616,40 +12623,40 @@
       <c r="O80" s="6"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="17" t="s">
+      <c r="A96" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="18"/>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="2" t="s">
@@ -12961,41 +12968,41 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
       <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
       <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16">
@@ -13409,41 +13416,41 @@
       <c r="P31" s="14"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
       <c r="P32" s="14"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
       <c r="P33" s="14"/>
     </row>
     <row r="34" spans="1:16">
@@ -13646,40 +13653,40 @@
       <c r="P42" s="14"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
@@ -13845,7 +13852,7 @@
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
-      <c r="R69" s="18"/>
+      <c r="R69" s="19"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="6"/>
@@ -13869,40 +13876,40 @@
       <c r="O70" s="5"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="2" t="s">
@@ -14097,40 +14104,40 @@
       <c r="O98" s="5"/>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="2" t="s">
@@ -14311,40 +14318,40 @@
       <c r="O127" s="5"/>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="17" t="s">
+      <c r="A147" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="17"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="17"/>
-      <c r="K147" s="17"/>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
-      <c r="O147" s="17"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="18"/>
+      <c r="N147" s="18"/>
+      <c r="O147" s="18"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="17"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="17"/>
-      <c r="I148" s="17"/>
-      <c r="J148" s="17"/>
-      <c r="K148" s="17"/>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
+      <c r="A148" s="18"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="18"/>
+      <c r="N148" s="18"/>
+      <c r="O148" s="18"/>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="2" t="s">
@@ -14758,8 +14765,8 @@
   </sheetPr>
   <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
